--- a/app/Licenciatura_em_Medicina_Veterinaria.xlsx
+++ b/app/Licenciatura_em_Medicina_Veterinaria.xlsx
@@ -11,39 +11,36 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
     <sheet name="20153506" sheetId="2" r:id="rId5"/>
     <sheet name="20153496" sheetId="3" r:id="rId6"/>
-    <sheet name="20154516" sheetId="4" r:id="rId7"/>
-    <sheet name="20153499" sheetId="5" r:id="rId8"/>
-    <sheet name="20153493" sheetId="6" r:id="rId9"/>
-    <sheet name="20153519" sheetId="7" r:id="rId10"/>
-    <sheet name="20153516" sheetId="8" r:id="rId11"/>
-    <sheet name="20153509" sheetId="9" r:id="rId12"/>
-    <sheet name="20153508" sheetId="10" r:id="rId13"/>
-    <sheet name="20153507" sheetId="11" r:id="rId14"/>
-    <sheet name="20153517" sheetId="12" r:id="rId15"/>
-    <sheet name="20153494" sheetId="13" r:id="rId16"/>
-    <sheet name="20154515" sheetId="14" r:id="rId17"/>
-    <sheet name="20153498" sheetId="15" r:id="rId18"/>
-    <sheet name="20154501" sheetId="16" r:id="rId19"/>
-    <sheet name="20153512" sheetId="17" r:id="rId20"/>
-    <sheet name="20153504" sheetId="18" r:id="rId21"/>
-    <sheet name="20153501" sheetId="19" r:id="rId22"/>
-    <sheet name="20153511" sheetId="20" r:id="rId23"/>
-    <sheet name="20153500" sheetId="21" r:id="rId24"/>
-    <sheet name="20153497" sheetId="22" r:id="rId25"/>
-    <sheet name="20153502" sheetId="23" r:id="rId26"/>
-    <sheet name="20153518" sheetId="24" r:id="rId27"/>
-    <sheet name="20153514" sheetId="25" r:id="rId28"/>
-    <sheet name="20153510" sheetId="26" r:id="rId29"/>
-    <sheet name="20153505" sheetId="27" r:id="rId30"/>
-    <sheet name="20153520" sheetId="28" r:id="rId31"/>
-    <sheet name="20153522" sheetId="29" r:id="rId32"/>
-    <sheet name="20153495" sheetId="30" r:id="rId33"/>
-    <sheet name="20153515" sheetId="31" r:id="rId34"/>
-    <sheet name="20153503" sheetId="32" r:id="rId35"/>
-    <sheet name="20153521" sheetId="33" r:id="rId36"/>
-    <sheet name="20153513" sheetId="34" r:id="rId37"/>
-    <sheet name="Sheet2" sheetId="35" r:id="rId38"/>
-    <sheet name="Sheet3" sheetId="36" r:id="rId39"/>
+    <sheet name="20153499" sheetId="4" r:id="rId7"/>
+    <sheet name="20153493" sheetId="5" r:id="rId8"/>
+    <sheet name="20153519" sheetId="6" r:id="rId9"/>
+    <sheet name="20153516" sheetId="7" r:id="rId10"/>
+    <sheet name="20153509" sheetId="8" r:id="rId11"/>
+    <sheet name="20153508" sheetId="9" r:id="rId12"/>
+    <sheet name="20153507" sheetId="10" r:id="rId13"/>
+    <sheet name="20153517" sheetId="11" r:id="rId14"/>
+    <sheet name="20153494" sheetId="12" r:id="rId15"/>
+    <sheet name="20153498" sheetId="13" r:id="rId16"/>
+    <sheet name="20153512" sheetId="14" r:id="rId17"/>
+    <sheet name="20153504" sheetId="15" r:id="rId18"/>
+    <sheet name="20153501" sheetId="16" r:id="rId19"/>
+    <sheet name="20153511" sheetId="17" r:id="rId20"/>
+    <sheet name="20153500" sheetId="18" r:id="rId21"/>
+    <sheet name="20153497" sheetId="19" r:id="rId22"/>
+    <sheet name="20153502" sheetId="20" r:id="rId23"/>
+    <sheet name="20153518" sheetId="21" r:id="rId24"/>
+    <sheet name="20153514" sheetId="22" r:id="rId25"/>
+    <sheet name="20153510" sheetId="23" r:id="rId26"/>
+    <sheet name="20153505" sheetId="24" r:id="rId27"/>
+    <sheet name="20153520" sheetId="25" r:id="rId28"/>
+    <sheet name="20153522" sheetId="26" r:id="rId29"/>
+    <sheet name="20153495" sheetId="27" r:id="rId30"/>
+    <sheet name="20153515" sheetId="28" r:id="rId31"/>
+    <sheet name="20153503" sheetId="29" r:id="rId32"/>
+    <sheet name="20153521" sheetId="30" r:id="rId33"/>
+    <sheet name="20153513" sheetId="31" r:id="rId34"/>
+    <sheet name="Sheet2" sheetId="32" r:id="rId35"/>
+    <sheet name="Sheet3" sheetId="33" r:id="rId36"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="0"/>
@@ -51,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="277">
   <si>
     <t>UNIVERSIDADE EDUARDO MONDLANE</t>
   </si>
@@ -200,9 +197,6 @@
     <t>Bendita Alfaiate</t>
   </si>
   <si>
-    <t>Cidade de Chimoio</t>
-  </si>
-  <si>
     <t>Masculino</t>
   </si>
   <si>
@@ -239,9 +233,6 @@
     <t>Cesartina Augusto Macamo</t>
   </si>
   <si>
-    <t>Distrito Municipal de Kampfumo</t>
-  </si>
-  <si>
     <t>Feminino</t>
   </si>
   <si>
@@ -254,15 +245,6 @@
     <t>Escola Josina Machel</t>
   </si>
   <si>
-    <t>Taela</t>
-  </si>
-  <si>
-    <t>Dércio de Nascimento</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
     <t>Sigauque</t>
   </si>
   <si>
@@ -278,9 +260,6 @@
     <t>Joana Jossias Machoi</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamavota</t>
-  </si>
-  <si>
     <t>110200379975A</t>
   </si>
   <si>
@@ -305,9 +284,6 @@
     <t>Anastancia Pita Raice</t>
   </si>
   <si>
-    <t>Cidade de Pemba</t>
-  </si>
-  <si>
     <t>050100310716C</t>
   </si>
   <si>
@@ -332,9 +308,6 @@
     <t>Celeste Vasco Waia</t>
   </si>
   <si>
-    <t>Distrito de Nhamatanda</t>
-  </si>
-  <si>
     <t>070102543501S</t>
   </si>
   <si>
@@ -359,9 +332,6 @@
     <t>Isabel Ernesto</t>
   </si>
   <si>
-    <t>Distrito de Boane</t>
-  </si>
-  <si>
     <t>Passaporte</t>
   </si>
   <si>
@@ -434,9 +404,6 @@
     <t>Eulalia Rodrigues Cabral</t>
   </si>
   <si>
-    <t>Distrito de Mavalane</t>
-  </si>
-  <si>
     <t>110202328680I</t>
   </si>
   <si>
@@ -491,12 +458,6 @@
     <t>+258842377162</t>
   </si>
   <si>
-    <t>Mazula</t>
-  </si>
-  <si>
-    <t>Francisca Ankhane Ropsalimna</t>
-  </si>
-  <si>
     <t xml:space="preserve">Matsinhe </t>
   </si>
   <si>
@@ -521,12 +482,6 @@
     <t>Outra - Prov Maputo</t>
   </si>
   <si>
-    <t>Mateus</t>
-  </si>
-  <si>
-    <t>Linda Domingos</t>
-  </si>
-  <si>
     <t>Matavele</t>
   </si>
   <si>
@@ -584,9 +539,6 @@
     <t>Irondina Uamusse</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamubukwana</t>
-  </si>
-  <si>
     <t>110500162841S</t>
   </si>
   <si>
@@ -608,9 +560,6 @@
     <t>Paulina Seda</t>
   </si>
   <si>
-    <t>Distrito de Ribáuè</t>
-  </si>
-  <si>
     <t>Talao de Carta de Conducao</t>
   </si>
   <si>
@@ -653,9 +602,6 @@
     <t>Isaura Helena Muianga</t>
   </si>
   <si>
-    <t>Cidade de Xai-Xai</t>
-  </si>
-  <si>
     <t>090101234341B</t>
   </si>
   <si>
@@ -680,9 +626,6 @@
     <t>Isaura Maria Mario</t>
   </si>
   <si>
-    <t>Cidade de Quelimane</t>
-  </si>
-  <si>
     <t>040100772534Q</t>
   </si>
   <si>
@@ -776,9 +719,6 @@
     <t>Songolo Sango</t>
   </si>
   <si>
-    <t>Cidade de Nampula</t>
-  </si>
-  <si>
     <t>DIRE</t>
   </si>
   <si>
@@ -846,9 +786,6 @@
   </si>
   <si>
     <t>Ana Maria Vinho</t>
-  </si>
-  <si>
-    <t>Cidade de Beira</t>
   </si>
   <si>
     <t>070102429065P</t>
@@ -2177,7 +2114,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153508</v>
+        <v>20153507</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -2201,7 +2138,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2217,7 +2154,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2233,7 +2170,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2249,7 +2186,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2265,7 +2202,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2280,9 +2217,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2290,7 +2225,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2301,7 +2236,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2310,7 +2245,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2322,7 +2257,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2330,7 +2265,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2426,7 +2361,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2453,7 +2388,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2009</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -2469,7 +2404,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -2772,7 +2707,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153507</v>
+        <v>20153517</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -2796,7 +2731,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2812,7 +2747,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2828,7 +2763,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2844,7 +2779,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2860,7 +2795,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2875,9 +2810,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>127</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2885,7 +2818,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2896,7 +2829,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2905,7 +2838,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2917,7 +2850,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2925,7 +2858,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3021,7 +2954,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3064,7 +2997,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3367,7 +3300,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153517</v>
+        <v>20153494</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -3391,7 +3324,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3407,7 +3340,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3423,7 +3356,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3439,7 +3372,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3455,7 +3388,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3470,9 +3403,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>75</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3480,7 +3411,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3491,7 +3422,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3500,7 +3431,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3512,7 +3443,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3520,7 +3451,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3616,7 +3547,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3659,7 +3590,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3962,7 +3893,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153494</v>
+        <v>20153498</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -3986,7 +3917,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4002,7 +3933,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4018,7 +3949,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4034,7 +3965,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4050,7 +3981,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4065,9 +3996,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>75</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4075,7 +4004,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4086,7 +4015,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4095,7 +4024,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4107,7 +4036,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4115,7 +4044,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4211,7 +4140,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4254,7 +4183,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4505,7 +4434,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -4555,7 +4486,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154515</v>
+        <v>20153512</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -4579,7 +4510,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4595,7 +4526,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4610,7 +4541,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>146</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -4624,7 +4557,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>147</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -4638,7 +4573,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>148</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -4659,7 +4596,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -4668,14 +4607,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -4685,13 +4628,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>149</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -4786,7 +4733,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>69</v>
+        <v>150</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4812,7 +4759,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2014</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -4826,7 +4775,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>64</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -5128,7 +5079,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153498</v>
+        <v>20153504</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -5152,7 +5103,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5168,7 +5119,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5184,7 +5135,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5200,7 +5151,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5216,7 +5167,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5231,9 +5182,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>127</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5241,7 +5190,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5252,7 +5201,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5261,7 +5210,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5273,7 +5222,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5281,7 +5230,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5377,7 +5326,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5420,7 +5369,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5671,7 +5620,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -5721,7 +5672,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154501</v>
+        <v>20153501</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -5745,7 +5696,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5761,7 +5712,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5776,7 +5727,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>160</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -5790,7 +5743,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>161</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -5804,7 +5759,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>162</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -5825,7 +5782,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>61</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -5834,14 +5793,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -5851,13 +5814,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>163</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -5952,7 +5919,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>69</v>
+        <v>164</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5978,7 +5945,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2014</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -5992,7 +5961,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>112</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -6294,7 +6265,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153512</v>
+        <v>20153511</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -6318,7 +6289,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6334,7 +6305,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6350,7 +6321,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6366,7 +6337,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6382,7 +6353,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6397,9 +6368,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>127</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6407,7 +6376,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6418,7 +6387,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6427,7 +6396,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6439,15 +6408,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>170</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>163</v>
+      <c r="H17" s="20">
+        <v>39920436</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6543,7 +6512,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6586,7 +6555,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>66</v>
+        <v>172</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6889,7 +6858,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153504</v>
+        <v>20153500</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -6913,7 +6882,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6929,7 +6898,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6945,7 +6914,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6961,7 +6930,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6977,7 +6946,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6992,9 +6961,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7002,7 +6969,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7013,7 +6980,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7022,7 +6989,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7034,15 +7001,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>170</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>170</v>
+      <c r="H17" s="20">
+        <v>60138925</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7138,7 +7105,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7181,7 +7148,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7484,7 +7451,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153501</v>
+        <v>20153497</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -7508,7 +7475,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7524,7 +7491,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7540,7 +7507,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7556,7 +7523,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7572,7 +7539,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7587,9 +7554,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>177</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7597,7 +7562,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7608,7 +7573,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7617,7 +7582,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7629,7 +7594,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7637,7 +7602,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7733,7 +7698,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7760,7 +7725,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -7776,7 +7741,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>121</v>
+        <v>186</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8182,9 +8147,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8192,7 +8155,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8203,7 +8166,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8212,7 +8175,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8224,7 +8187,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8232,7 +8195,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8328,7 +8291,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8371,7 +8334,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8674,7 +8637,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153511</v>
+        <v>20153502</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -8698,7 +8661,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -8714,7 +8677,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -8730,7 +8693,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -8746,7 +8709,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -8762,7 +8725,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -8777,9 +8740,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>185</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8787,7 +8748,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8798,7 +8759,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8807,7 +8768,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8819,15 +8780,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>186</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20">
-        <v>39920436</v>
+      <c r="H17" s="20" t="s">
+        <v>192</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8923,7 +8884,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8966,7 +8927,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9269,7 +9230,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153500</v>
+        <v>20153518</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -9293,7 +9254,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9309,7 +9270,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9325,7 +9286,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9341,7 +9302,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9357,7 +9318,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9372,9 +9333,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9382,7 +9341,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9393,7 +9352,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9402,7 +9361,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9414,15 +9373,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>186</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20">
-        <v>60138925</v>
+      <c r="H17" s="20" t="s">
+        <v>200</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9518,7 +9477,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9545,7 +9504,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2008</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -9561,7 +9520,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>202</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9864,7 +9823,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153497</v>
+        <v>20153514</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -9888,7 +9847,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9904,7 +9863,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9920,7 +9879,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9936,7 +9895,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9952,7 +9911,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9967,9 +9926,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>200</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9977,7 +9934,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9988,7 +9945,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9997,7 +9954,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10009,7 +9966,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10017,7 +9974,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10113,7 +10070,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10140,7 +10097,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -10156,7 +10113,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10459,7 +10416,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153502</v>
+        <v>20153510</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -10483,7 +10440,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10499,7 +10456,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10515,7 +10472,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10531,7 +10488,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10547,7 +10504,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10562,9 +10519,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>209</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10572,7 +10527,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10583,7 +10538,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10592,7 +10547,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10604,7 +10559,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10612,7 +10567,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10708,7 +10663,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10735,7 +10690,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -10751,7 +10706,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11054,7 +11009,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153518</v>
+        <v>20153505</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -11078,7 +11033,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11094,7 +11049,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11110,7 +11065,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11126,7 +11081,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11142,7 +11097,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11157,9 +11112,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11167,7 +11120,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11178,7 +11131,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11187,7 +11140,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11199,15 +11152,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>223</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>218</v>
+      <c r="H17" s="20">
+        <v>36700002690</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11303,7 +11256,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11330,7 +11283,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2008</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -11346,7 +11299,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11649,7 +11602,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153514</v>
+        <v>20153520</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -11673,7 +11626,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11689,7 +11642,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11705,7 +11658,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11721,7 +11674,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11737,7 +11690,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11752,9 +11705,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>209</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11762,7 +11713,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11773,7 +11724,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11782,7 +11733,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11794,7 +11745,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11802,7 +11753,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11898,7 +11849,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11941,7 +11892,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>212</v>
+        <v>143</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12244,7 +12195,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153510</v>
+        <v>20153522</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -12268,7 +12219,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12284,7 +12235,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12300,7 +12251,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12316,7 +12267,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12332,7 +12283,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12347,9 +12298,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>200</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12357,7 +12306,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12368,7 +12317,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12377,7 +12326,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12389,7 +12338,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12397,7 +12346,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12493,7 +12442,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12520,7 +12469,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -12536,7 +12485,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12839,7 +12788,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153505</v>
+        <v>20153495</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -12863,7 +12812,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12879,7 +12828,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12895,7 +12844,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12911,7 +12860,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12927,7 +12876,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12942,9 +12891,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>241</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12952,7 +12899,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12963,7 +12910,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12972,7 +12919,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12984,15 +12931,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>242</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20">
-        <v>36700002690</v>
+      <c r="H17" s="20" t="s">
+        <v>246</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13088,7 +13035,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13115,7 +13062,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -13131,7 +13078,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13434,7 +13381,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153520</v>
+        <v>20153515</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -13458,7 +13405,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13474,7 +13421,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13490,7 +13437,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13506,7 +13453,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13522,7 +13469,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13537,9 +13484,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>127</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13547,7 +13492,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13558,7 +13503,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13567,7 +13512,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13579,15 +13524,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>170</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>250</v>
+      <c r="H17" s="20">
+        <v>60114550</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13683,7 +13628,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13726,7 +13671,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14029,7 +13974,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153522</v>
+        <v>20153503</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -14053,7 +13998,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14069,7 +14014,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14085,7 +14030,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14101,7 +14046,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14117,7 +14062,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14132,9 +14077,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14142,7 +14085,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14153,7 +14096,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14162,7 +14105,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14174,7 +14117,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14182,7 +14125,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14278,7 +14221,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14305,7 +14248,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -14321,7 +14264,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>259</v>
+        <v>72</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14648,7 +14591,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14664,7 +14607,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14680,7 +14623,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14696,7 +14639,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14712,7 +14655,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14727,9 +14670,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14737,7 +14678,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14748,7 +14689,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14757,7 +14698,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14769,7 +14710,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14777,7 +14718,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14873,7 +14814,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14916,7 +14857,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15219,7 +15160,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153495</v>
+        <v>20153521</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -15243,7 +15184,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15259,7 +15200,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15275,7 +15216,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15291,7 +15232,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15307,7 +15248,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15322,9 +15263,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>265</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15332,7 +15271,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15343,7 +15282,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15352,7 +15291,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15364,7 +15303,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15372,7 +15311,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15468,7 +15407,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15511,7 +15450,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>268</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15814,7 +15753,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153515</v>
+        <v>20153513</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -15917,9 +15856,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15927,7 +15864,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15938,7 +15875,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15947,7 +15884,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15959,15 +15896,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>186</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20">
-        <v>60114550</v>
+      <c r="H17" s="20" t="s">
+        <v>274</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16063,7 +16000,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16106,7 +16043,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>276</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16309,1791 +16246,6 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20153503</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>275</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>277</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>280</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>281</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2014</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20153521</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>282</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>284</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>285</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>286</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>288</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2013</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20153513</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>289</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>290</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>291</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>292</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>293</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>265</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>294</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>295</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2014</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>296</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
@@ -18117,7 +16269,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -18198,7 +16350,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -18248,7 +16402,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154516</v>
+        <v>20153499</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -18272,7 +16426,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18288,7 +16442,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18303,7 +16457,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>67</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -18317,7 +16473,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>68</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -18331,7 +16489,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>69</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -18352,7 +16512,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>61</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -18361,14 +16523,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -18378,13 +16544,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>70</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -18479,7 +16649,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -18505,7 +16675,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2014</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -18519,7 +16691,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>72</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -18821,7 +16995,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153499</v>
+        <v>20153493</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -18845,7 +17019,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18861,7 +17035,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18877,7 +17051,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18893,7 +17067,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18909,7 +17083,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18924,9 +17098,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>75</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18934,7 +17106,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18945,7 +17117,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18954,7 +17126,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18966,7 +17138,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -18974,7 +17146,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19070,7 +17242,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19113,7 +17285,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -19416,7 +17588,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153493</v>
+        <v>20153519</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -19440,7 +17612,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -19456,7 +17628,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -19472,7 +17644,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -19488,7 +17660,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -19504,7 +17676,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -19519,9 +17691,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>84</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -19529,7 +17699,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -19540,7 +17710,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -19549,7 +17719,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -19561,7 +17731,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -19569,7 +17739,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19665,7 +17835,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19708,7 +17878,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -20011,7 +18181,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153519</v>
+        <v>20153516</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -20035,7 +18205,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -20051,7 +18221,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -20067,7 +18237,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -20083,7 +18253,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -20099,7 +18269,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -20114,9 +18284,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>93</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -20124,7 +18292,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -20135,7 +18303,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -20144,7 +18312,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -20156,7 +18324,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -20164,7 +18332,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -20260,7 +18428,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -20287,7 +18455,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2008</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -20303,7 +18471,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -20606,7 +18774,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153516</v>
+        <v>20153509</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -20630,7 +18798,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -20646,7 +18814,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -20662,7 +18830,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -20678,7 +18846,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -20694,7 +18862,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -20709,9 +18877,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>102</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -20719,7 +18885,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -20730,7 +18896,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -20739,7 +18905,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -20751,7 +18917,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -20759,7 +18925,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -20855,7 +19021,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -20882,7 +19048,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2008</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -20898,7 +19064,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>106</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -21201,7 +19367,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153509</v>
+        <v>20153508</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -21225,7 +19391,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -21241,7 +19407,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -21257,7 +19423,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -21273,7 +19439,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -21289,7 +19455,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -21304,9 +19470,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -21314,7 +19478,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -21325,7 +19489,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -21334,7 +19498,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -21346,7 +19510,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -21354,7 +19518,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -21450,7 +19614,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -21477,7 +19641,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -21493,7 +19657,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
